--- a/Ocean/Portfolio/20180011-Agent Portal Ver2-SIT-Test Document _ portfolio.xlsx
+++ b/Ocean/Portfolio/20180011-Agent Portal Ver2-SIT-Test Document _ portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/my_app/Ocean/Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B62CA59-F66D-0748-BA73-DE1504E93375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC1153B-5E0C-C846-A630-E0FA12CAE20C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="820" windowWidth="22620" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18976,7 +18976,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
